--- a/src/test/java/day11_webTables_ExcelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day11_webTables_ExcelOtomasyon/ulkeler.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="576">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1742,12 +1742,22 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>JavaRepublic</t>
+  </si>
+  <si>
+    <t>Selenium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2168,7 +2178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -2176,7 +2186,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2192,6 +2202,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2206,6 +2219,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="n" s="0">
+        <v>1500000.0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2318,6 +2334,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="n" s="0">
+        <v>250000.0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2388,6 +2407,9 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="E15" t="n" s="0">
+        <v>54000.0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -4851,6 +4873,14 @@
       </c>
       <c r="D191" s="7" t="s">
         <v>571</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -4870,66 +4900,66 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="B7" s="0">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="B13" s="0">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E20">
+      <c r="E20" s="0">
         <v>1</v>
       </c>
     </row>
